--- a/CSM_Bharani/TestData/CSMparamTestData.xlsx
+++ b/CSM_Bharani/TestData/CSMparamTestData.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="27795" windowHeight="12090"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="27795" windowHeight="12090" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CSMParam_GeneralLedgerTestData" sheetId="1" r:id="rId1"/>
     <sheet name="CSMParam_AccountTypeTestData" sheetId="2" r:id="rId2"/>
     <sheet name="CSMParam_userAccessTestData" sheetId="3" r:id="rId3"/>
     <sheet name="CSMParam_CIFTypeTestData" sheetId="4" r:id="rId4"/>
+    <sheet name="CSMParam_UserUpdateAfterApprove" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -185,6 +186,15 @@
   </si>
   <si>
     <t>Individual</t>
+  </si>
+  <si>
+    <t>User ID Update After Approve</t>
+  </si>
+  <si>
+    <t>BHARANI</t>
+  </si>
+  <si>
+    <t>User ID Approve Grid</t>
   </si>
 </sst>
 </file>
@@ -278,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -290,6 +300,8 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -913,9 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1005,4 +1015,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>